--- a/firebase_data_spyAOC.xlsx
+++ b/firebase_data_spyAOC.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E850"/>
+  <dimension ref="A1:E851"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14882,11 +14882,28 @@
       <c r="B850" s="2" t="n">
         <v>45763.47916666666</v>
       </c>
-      <c r="C850" t="inlineStr"/>
+      <c r="C850" t="n">
+        <v>0</v>
+      </c>
       <c r="D850" t="n">
         <v>0</v>
       </c>
-      <c r="E850" t="inlineStr"/>
+      <c r="E850" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="1" t="n">
+        <v>849</v>
+      </c>
+      <c r="B851" s="2" t="n">
+        <v>45764.47916666666</v>
+      </c>
+      <c r="C851" t="inlineStr"/>
+      <c r="D851" t="n">
+        <v>1</v>
+      </c>
+      <c r="E851" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/firebase_data_spyAOC.xlsx
+++ b/firebase_data_spyAOC.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E851"/>
+  <dimension ref="A1:E854"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14899,11 +14899,62 @@
       <c r="B851" s="2" t="n">
         <v>45764.47916666666</v>
       </c>
-      <c r="C851" t="inlineStr"/>
+      <c r="C851" t="n">
+        <v>0</v>
+      </c>
       <c r="D851" t="n">
         <v>1</v>
       </c>
-      <c r="E851" t="inlineStr"/>
+      <c r="E851" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="1" t="n">
+        <v>850</v>
+      </c>
+      <c r="B852" s="2" t="n">
+        <v>45768.47916666666</v>
+      </c>
+      <c r="C852" t="n">
+        <v>0</v>
+      </c>
+      <c r="D852" t="n">
+        <v>0</v>
+      </c>
+      <c r="E852" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="1" t="n">
+        <v>851</v>
+      </c>
+      <c r="B853" s="2" t="n">
+        <v>45769.47916666666</v>
+      </c>
+      <c r="C853" t="n">
+        <v>1</v>
+      </c>
+      <c r="D853" t="n">
+        <v>0</v>
+      </c>
+      <c r="E853" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="1" t="n">
+        <v>852</v>
+      </c>
+      <c r="B854" s="2" t="n">
+        <v>45770.47916666666</v>
+      </c>
+      <c r="C854" t="inlineStr"/>
+      <c r="D854" t="n">
+        <v>1</v>
+      </c>
+      <c r="E854" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/firebase_data_spyAOC.xlsx
+++ b/firebase_data_spyAOC.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E854"/>
+  <dimension ref="A1:E856"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14950,11 +14950,45 @@
       <c r="B854" s="2" t="n">
         <v>45770.47916666666</v>
       </c>
-      <c r="C854" t="inlineStr"/>
+      <c r="C854" t="n">
+        <v>0</v>
+      </c>
       <c r="D854" t="n">
         <v>1</v>
       </c>
-      <c r="E854" t="inlineStr"/>
+      <c r="E854" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="1" t="n">
+        <v>853</v>
+      </c>
+      <c r="B855" s="2" t="n">
+        <v>45771.47916666666</v>
+      </c>
+      <c r="C855" t="n">
+        <v>1</v>
+      </c>
+      <c r="D855" t="n">
+        <v>0</v>
+      </c>
+      <c r="E855" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="1" t="n">
+        <v>854</v>
+      </c>
+      <c r="B856" s="2" t="n">
+        <v>45772.47916666666</v>
+      </c>
+      <c r="C856" t="inlineStr"/>
+      <c r="D856" t="n">
+        <v>1</v>
+      </c>
+      <c r="E856" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/firebase_data_spyAOC.xlsx
+++ b/firebase_data_spyAOC.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E856"/>
+  <dimension ref="A1:E859"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14984,11 +14984,62 @@
       <c r="B856" s="2" t="n">
         <v>45772.47916666666</v>
       </c>
-      <c r="C856" t="inlineStr"/>
+      <c r="C856" t="n">
+        <v>1</v>
+      </c>
       <c r="D856" t="n">
         <v>1</v>
       </c>
-      <c r="E856" t="inlineStr"/>
+      <c r="E856" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="1" t="n">
+        <v>855</v>
+      </c>
+      <c r="B857" s="2" t="n">
+        <v>45775.47916666666</v>
+      </c>
+      <c r="C857" t="n">
+        <v>0</v>
+      </c>
+      <c r="D857" t="n">
+        <v>1</v>
+      </c>
+      <c r="E857" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="1" t="n">
+        <v>856</v>
+      </c>
+      <c r="B858" s="2" t="n">
+        <v>45776.47916666666</v>
+      </c>
+      <c r="C858" t="n">
+        <v>1</v>
+      </c>
+      <c r="D858" t="n">
+        <v>0</v>
+      </c>
+      <c r="E858" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="1" t="n">
+        <v>857</v>
+      </c>
+      <c r="B859" s="2" t="n">
+        <v>45777.47916666666</v>
+      </c>
+      <c r="C859" t="inlineStr"/>
+      <c r="D859" t="n">
+        <v>1</v>
+      </c>
+      <c r="E859" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/firebase_data_spyAOC.xlsx
+++ b/firebase_data_spyAOC.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E859"/>
+  <dimension ref="A1:E861"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15035,11 +15035,45 @@
       <c r="B859" s="2" t="n">
         <v>45777.47916666666</v>
       </c>
-      <c r="C859" t="inlineStr"/>
+      <c r="C859" t="n">
+        <v>1</v>
+      </c>
       <c r="D859" t="n">
         <v>1</v>
       </c>
-      <c r="E859" t="inlineStr"/>
+      <c r="E859" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="1" t="n">
+        <v>858</v>
+      </c>
+      <c r="B860" s="2" t="n">
+        <v>45778.47916666666</v>
+      </c>
+      <c r="C860" t="n">
+        <v>0</v>
+      </c>
+      <c r="D860" t="n">
+        <v>1</v>
+      </c>
+      <c r="E860" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="1" t="n">
+        <v>859</v>
+      </c>
+      <c r="B861" s="2" t="n">
+        <v>45779.47916666666</v>
+      </c>
+      <c r="C861" t="inlineStr"/>
+      <c r="D861" t="n">
+        <v>1</v>
+      </c>
+      <c r="E861" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/firebase_data_spyAOC.xlsx
+++ b/firebase_data_spyAOC.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E861"/>
+  <dimension ref="A1:E864"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15069,11 +15069,62 @@
       <c r="B861" s="2" t="n">
         <v>45779.47916666666</v>
       </c>
-      <c r="C861" t="inlineStr"/>
+      <c r="C861" t="n">
+        <v>1</v>
+      </c>
       <c r="D861" t="n">
         <v>1</v>
       </c>
-      <c r="E861" t="inlineStr"/>
+      <c r="E861" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="1" t="n">
+        <v>860</v>
+      </c>
+      <c r="B862" s="2" t="n">
+        <v>45782.47916666666</v>
+      </c>
+      <c r="C862" t="n">
+        <v>1</v>
+      </c>
+      <c r="D862" t="n">
+        <v>1</v>
+      </c>
+      <c r="E862" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="1" t="n">
+        <v>861</v>
+      </c>
+      <c r="B863" s="2" t="n">
+        <v>45783.47916666666</v>
+      </c>
+      <c r="C863" t="n">
+        <v>1</v>
+      </c>
+      <c r="D863" t="n">
+        <v>1</v>
+      </c>
+      <c r="E863" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="1" t="n">
+        <v>862</v>
+      </c>
+      <c r="B864" s="2" t="n">
+        <v>45784.47916666666</v>
+      </c>
+      <c r="C864" t="inlineStr"/>
+      <c r="D864" t="n">
+        <v>1</v>
+      </c>
+      <c r="E864" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
